--- a/src/cloud/tests/AP/AP_USA/CreatePaymentsITC_Test.xlsx
+++ b/src/cloud/tests/AP/AP_USA/CreatePaymentsITC_Test.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vramasubramanian\OneDrive - IT Convergence\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\AP\AP_USA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D174A62-F64A-40CD-8A18-D406F5D015F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13155" windowHeight="2520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Execute</t>
   </si>
@@ -110,12 +125,48 @@
   </si>
   <si>
     <t>{AP_US_username}</t>
+  </si>
+  <si>
+    <t>PayFromDate</t>
+  </si>
+  <si>
+    <t>FromPaymentPriority</t>
+  </si>
+  <si>
+    <t>ToPaymentPriority</t>
+  </si>
+  <si>
+    <t>DateBasis</t>
+  </si>
+  <si>
+    <t>IncludeZeroAmountInvoices</t>
+  </si>
+  <si>
+    <t>SupplierType</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>SelectionCriteriaPaymentMethod</t>
+  </si>
+  <si>
+    <t>InvoiceConversionRateType</t>
+  </si>
+  <si>
+    <t>SupplierOrParty</t>
+  </si>
+  <si>
+    <t>InvoiceGroup</t>
+  </si>
+  <si>
+    <t>RemitToAccount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,18 +579,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,12 +601,12 @@
     <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
-    <col min="9" max="18" width="20.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="0.85546875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="30" width="20.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="0.85546875" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,9 +629,21 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
-      <c r="R1" s="10"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -623,8 +686,44 @@
       <c r="R2" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="S2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -646,7 +745,7 @@
       </c>
       <c r="K3" s="8" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>05/07/21</v>
+        <v>06/29/21</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>16</v>
@@ -668,16 +767,28 @@
       </c>
       <c r="R3" s="8" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>05/07/21</v>
-      </c>
+        <v>06/29/21</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="I1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -685,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
